--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_BasisSwapQuotes.xlsx
@@ -12,9 +12,6 @@
     <sheet name="BasisSwap3M6M" sheetId="24" r:id="rId3"/>
     <sheet name="BasisSwapxM12M" sheetId="25" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
   <si>
     <t>Currency</t>
   </si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>21M</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -812,22 +812,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1204,9 +1188,8 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1349,12 +1332,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$4&amp;$D$4&amp;".xml"</f>
         <v>USD_010_Sw3L1L.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="27"/>
@@ -2490,12 +2473,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$4&amp;$D$4&amp;".xml"</f>
         <v>USD_010_Sw6L3L.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="27"/>
@@ -3634,12 +3617,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$7&amp;$D$7&amp;".xml"</f>
         <v>USD_010_Sw12L3L.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="27"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_BasisSwapQuotes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>Currency</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>21M</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1185,9 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>65</v>
+      <c r="D8" s="13" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1333,12 +1331,12 @@
         <v>USD_010_Sw3L1L.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -2474,12 +2472,12 @@
         <v>USD_010_Sw6L3L.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -3618,12 +3616,12 @@
         <v>USD_010_Sw12L3L.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>
